--- a/report/excelReport/DemoAPITestCase.xlsx
+++ b/report/excelReport/DemoAPITestCase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9420" windowWidth="23040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$M$16</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Sheet1'!$A$1:$M$16</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -20,7 +20,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="12">
+  <fonts count="29">
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -38,16 +45,90 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="10"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color rgb="FF00FF00"/>
-      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color rgb="FF808000"/>
-      <sz val="10"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color rgb="FF00FF00"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -59,34 +140,86 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="10"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,13 +232,8 @@
       <b val="1"/>
       <color rgb="00808000"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <b val="1"/>
-      <color rgb="0000FF00"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill/>
     </fill>
@@ -114,12 +242,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.5999938962981048"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -142,86 +456,372 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+  <cellStyleXfs count="49">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="12" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="33" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="26" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="5" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="5" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="24" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="25" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -574,7 +1174,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -586,28 +1185,29 @@
   </sheetPr>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="M2" pane="bottomLeft" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.55"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col width="10.33203125" customWidth="1" style="1" min="1" max="1"/>
-    <col width="15.44140625" customWidth="1" style="1" min="2" max="2"/>
-    <col width="10" customWidth="1" style="1" min="3" max="3"/>
-    <col width="11.6640625" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
-    <col width="8.21875" customWidth="1" style="1" min="5" max="5"/>
-    <col width="12.6640625" customWidth="1" style="1" min="6" max="6"/>
-    <col width="26.44140625" customWidth="1" style="1" min="7" max="7"/>
-    <col width="58.33203125" customWidth="1" style="1" min="8" max="8"/>
-    <col width="12.88671875" customWidth="1" style="2" min="9" max="9"/>
-    <col width="12.109375" customWidth="1" style="2" min="10" max="10"/>
-    <col width="24.109375" customWidth="1" style="1" min="11" max="11"/>
-    <col width="10.21875" customWidth="1" style="1" min="13" max="13"/>
+    <col customWidth="1" max="1" min="1" style="1" width="10.3333333333333"/>
+    <col customWidth="1" max="2" min="2" style="1" width="15.4444444444444"/>
+    <col customWidth="1" max="3" min="3" style="1" width="10"/>
+    <col customWidth="1" max="4" min="4" style="1" width="11.6666666666667"/>
+    <col customWidth="1" max="5" min="5" style="1" width="8.22222222222222"/>
+    <col customWidth="1" max="6" min="6" style="1" width="12.6666666666667"/>
+    <col customWidth="1" max="7" min="7" style="1" width="26.4444444444444"/>
+    <col customWidth="1" max="8" min="8" style="1" width="58.3333333333333"/>
+    <col customWidth="1" max="9" min="9" style="2" width="12.8888888888889"/>
+    <col customWidth="1" max="10" min="10" style="2" width="12.1111111111111"/>
+    <col customWidth="1" max="11" min="11" style="1" width="24.1111111111111"/>
+    <col customWidth="1" max="13" min="13" style="1" width="84.4444444444444"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.05" customHeight="1" s="1">
+    <row customHeight="1" ht="24.05" r="1" s="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>module</t>
@@ -623,7 +1223,7 @@
           <t>UseCase</t>
         </is>
       </c>
-      <c r="D1" s="17" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>API</t>
         </is>
@@ -674,62 +1274,62 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="36.3" customHeight="1" s="1">
-      <c r="A2" s="14" t="inlineStr">
+    <row customHeight="1" ht="36.3" r="2" s="1">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>云平台</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>dental_cloud_001</t>
         </is>
       </c>
-      <c r="C2" s="14" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>案例列表</t>
         </is>
       </c>
-      <c r="D2" s="18" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>/api/u/dental/o/list</t>
         </is>
       </c>
-      <c r="E2" s="14" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F2" s="13" t="inlineStr">
+      <c r="F2" s="7" t="inlineStr">
         <is>
           <t>{'pageSize':20,'page':1}</t>
         </is>
       </c>
-      <c r="G2" s="13" t="n"/>
-      <c r="H2" s="13" t="n"/>
-      <c r="I2" s="15" t="inlineStr">
+      <c r="G2" s="7" t="n"/>
+      <c r="H2" s="7" t="n"/>
+      <c r="I2" s="12" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="J2" s="16" t="inlineStr">
+      <c r="J2" s="13" t="inlineStr">
         <is>
           <t>200</t>
         </is>
       </c>
-      <c r="K2" s="7" t="inlineStr">
+      <c r="K2" s="10" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="L2" s="19" t="inlineStr">
+      <c r="L2" s="20" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
-      <c r="M2" s="20" t="inlineStr">
-        <is>
-          <t>{"pageInfo":{"page":1,"pageSize":20,"pages":1,"total":20},"result":[{"Content":"123","CreateOn":"2020-11-10T07:37:39Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"repair","Doctor":"童医生9802","DoctorID":"6cd9867e-e831-5d3f-9691-8a877198930e","HospitalID":"","Hospitals":"","Id":"a8f49065-2d5f-5af7-9d71-2e2951062c7d","IssueAdmins":"084a5d84-2500-5826-bea6-ef3acd599976","Lab":"三维技工所","LabAdmins":"084a5d84-2500-5826-bea6-ef3acd599976,12dc011b-d353-5104-a9fe-e540baf6318f,b2774d22-f323-5ea3-8784-01dfacb1d3c2","LabMembers":"00d94fdf-d95f-5659-a4b0-75e5d80719b2,00e1d41b-a060-5ee3-9b8a-2306d391fa3e,03d2c445-baa1-5cde-b23b-7bb17bc4f605,05159b13-0cb5-5241-b802-66e4e0aa86b5,084a5d84-2500-5826-bea6-ef3acd599976,0ad870d0-6c7b-5eca-8982-e2cdf4f192db,0e591456-8a3f-5c7e-8c64-5398bba23f46,11cb0e56-eee7-5c2b-9cf5-efd8bce0665d,12dc011b-d353-5104-a9fe-e540baf6318f,14f130c3-5a7d-563b-8312-9f0b06040c04,15c6f822-13eb-5aa2-aa7b-f50c03afed30,166ffe7d-6d75-51b8-aaf3-650ce4923227,16acf4c1-d9e8-5e48-9c18-ea0982a95611,17810fdc-9b27-575f-90b9-5e6e1670f9fc,17a839f0-94d7-531c-a6e4-b8c0c52e3fbd,17c574c1-8e72-5de5-a13b-ddd8b1fc7815,186e7c6c-6851-5949-a426-0155abed870b,1b4bb7f0-f780-505c-bcd8-37db7a4a5ff0,1ba11710-a57b-56e1-8dcf-b06db2e3d503,1e39d21b-008c-5904-9392-a2b063c8fc4e,2055aecf-bf43-5b89-ba85-5347b91eb694,22aa443f-0b91-5ab3-9af4-1b74a2699d92,23825ffb-db0f-56d1-b39e-fdbc13747a99,292eed56-a2c6-55f1-880d-4f5fb5db5aad,2ad9f533-9d1a-5473-aed5-6e0848809df5,2b4b1b83-d898-5539-8f67-d5fcf1533e4f,2e157bd1-8ecf-50f8-8300-311929bc06e0,3080d104-665a-5918-b797-d2d319f4c899,3620e132-0281-50ed-a8a2-0cb8b50b54f1,365bfc85-70d0-57f3-8dba-b7e51e85aecc,38917cdb-89d4-5111-859c-350a9cf55f50,3e9000cf-aa0c-5861-98d1-f28855164fe2,401888fc-adda-5f09-ad82-d0fd9fd48765,41347da9-cb11-5ea8-9e7b-87a8b9902aa6,467943a4-8fa9-53e9-af02-0ba1df62ecae,48030802-6daf-5917-8f62-6e2e5b73bd9c,49c678de-8724-5ece-adde-7ea866d0c69b,4ab8a1bc-7ba8-5cb6-a352-8aa0ee6f6115,4f4d5a7e-0f6b-5086-9788-ab131206b998,53a5929d-4e1a-5c9e-986d-7f0c7123fce6,5483f311-dea6-595c-9216-fc56c4cca793,5a73aa3c-691c-53cf-89f9-c97d18105836,5eedf353-0d55-52d4-83af-7be24a73010b,6e26cc06-7477-5220-ad9c-9d6d949fa040,73720a25-f9df-5051-9711-d27e7a2d448c,76131f7d-3696-5523-83ae-da0d4b096ce1,7b734f88-a0d2-5c09-a4ae-4b8cf6a975fa,7bda8766-0d2e-5bd7-b98f-64cf77232533,7c6f2b9c-b934-532d-b535-860843be73ef,7ea83279-09e4-5aff-b01f-17b9435378f1,83d53cfd-c533-590d-b57c-6bc1b5b4337e,850eb7ec-b79e-589c-839d-c9d5816ac3d2,857bed0f-bd8f-5d41-9292-a1ad21377f32,89dc0cfa-7560-546a-be68-6f509fc942aa,8a783d97-dbed-5910-9471-d66d9baf3fd2,8e896f0e-6ad3-5135-99b2-c9471a1af0df,94ba8bc2-8af0-5b05-a0de-23885629265b,981736a9-4c15-57a5-8c75-a3c4f50fae42,9818e4fa-0eea-5862-a4a0-16ca5cb817ec,981f9f2e-c558-58e4-9a14-142d4d263e49,98878cd8-85fd-5ece-8ef5-533e9741064f,9a84929e-aaa6-5a51-9151-da109cc5772a,9c266a52-bd81-5652-aeba-320c919afdda,9c683d37-46a9-5b17-9873-69372b4bf428,9c68a1cb-e1b1-56c0-8548-07af3fb7d83b,a46a904d-a2ca-549a-936d-58171c86c801,a5704b36-25bf-502b-92ec-b8c9aa395d82,a9c0f975-a756-5508-975a-bef52708c15a,af43cb83-a6b9-5a28-b473-aa78e3896569,b1294787-c4ce-5329-859e-ffd826ba03dd,b2774d22-f323-5ea3-8784-01dfacb1d3c2,b6178293-c5c4-5e1d-af7c-2be1e54fe252,bdfbcfd6-76a4-5804-8167-8e60a92af96b,bf0583cb-3e3e-523d-b716-892837106dd1,bfd243e9-204a-5792-a989-717e9abfbc62,c27254df-e9cc-5c1e-ba3b-5d5e0e39c8df,c426c3fc-738e-5659-899c-604b4daf6077,c510527a-7bd4-586b-9a82-7123d61cc52a,c7836ac3-07e7-574c-9410-87d9f4d0ddb2,cac20118-bbf7-57ad-b943-6ed2fc2fcf42,ccce18cc-68f3-5018-b775-95aab94b18b3,d02c9fcf-a7d2-55fc-8185-5a69bfb8b948,d0c3b751-183d-53d8-ace3-5730be5bc99e,d34d42d9-f18a-5257-9f04-ec6cc756dc64,d5d84ce1-6e55-56e0-a971-3165747908e6,d8a0acaa-bb7c-5c11-873e-dea55543451b,dac50d1a-61b5-561a-a39f-f20d661a89de,dadff6a0-33dc-56e2-bb9d-60a875b43942,db9eb71b-462b-5810-b8e6-e18113b19976,de9fb5cb-dbcd-5c4d-bea8-9fa2a6a1b378,e1039c46-54f9-5f4d-a1f7-eff55694dcd6,e53f8319-9c56-5503-b157-317250c34eaa,e5779f2e-2ff7-5d95-bf46-16f4980c439c,ea067f1b-1e52-55f2-a9cd-f06b29043ff2,ea136595-86c7-5b20-b83e-f2bd22baac30,eb8fb933-420b-5473-a83b-d4c765032123,f02a239d-0dba-516d-bda1-3ad25190ed6c,f0c854a8-fa4c-5427-bd20-353c77945f24,f883c6e2-faa6-50bb-8483-f28f579b1033,fc3a3db4-a881-5644-bd4d-2b367ed2b6ea,feaaa918-c288-5e73-baaa-ebaffac2ce08","PatientName":"测试保留_15:37:20:858003","Status":"closed"},{"Content":"123","CreateOn":"2020-11-10T07:37:40Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"repair","Doctor":"童医生9802","DoctorID":"6cd9867e-e831-5d3f-9691-8a877198930e","HospitalID":"","Hospitals":"","Id":"06e9b942-913a-54e6-8087-8fc2305afd41","IssueAdmins":"084a5d84-2500-5826-bea6-ef3acd599976","Lab":"三维技工所","LabAdmins":"084a5d84-2500-5826-bea6-ef3acd599976,12dc011b-d353-5104-a9fe-e540baf6318f,b2774d22-f323-5ea3-8784-01dfacb1d3c2","LabMembers":"00d94fdf-d95f-5659-a4b0-75e5d80719b2,00e1d41b-a060-5ee3-9b8a-2306d391fa3e,03d2c445-baa1-5cde-b23b-7bb17bc4f605,05159b13-0cb5-5241-b802-66e4e0aa86b5,084a5d84-2500-5826-bea6-ef3acd599976,0ad870d0-6c7b-5eca-8982-e2cdf4f192db,0e591456-8a3f-5c7e-8c64-5398bba23f46,11cb0e56-eee7-5c2b-9cf5-efd8bce0665d,12dc011b-d353-5104-a9fe-e540baf6318f,14f130c3-5a7d-563b-8312-9f0b06040c04,15c6f822-13eb-5aa2-aa7b-f50c03afed30,166ffe7d-6d75-51b8-aaf3-650ce4923227,16acf4c1-d9e8-5e48-9c18-ea0982a95611,17810fdc-9b27-575f-90b9-5e6e1670f9fc,17a839f0-94d7-531c-a6e4-b8c0c52e3fbd,17c574c1-8e72-5de5-a13b-ddd8b1fc7815,186e7c6c-6851-5949-a426-0155abed870b,1b4bb7f0-f780-505c-bcd8-37db7a4a5ff0,1ba11710-a57b-56e1-8dcf-b06db2e3d503,1e39d21b-008c-5904-9392-a2b063c8fc4e,2055aecf-bf43-5b89-ba85-5347b91eb694,22aa443f-0b91-5ab3-9af4-1b74a2699d92,23825ffb-db0f-56d1-b39e-fdbc13747a99,292eed56-a2c6-55f1-880d-4f5fb5db5aad,2ad9f533-9d1a-5473-aed5-6e0848809df5,2b4b1b83-d898-5539-8f67-d5fcf1533e4f,2e157bd1-8ecf-50f8-8300-311929bc06e0,3080d104-665a-5918-b797-d2d319f4c899,3620e132-0281-50ed-a8a2-0cb8b50b54f1,365bfc85-70d0-57f3-8dba-b7e51e85aecc,38917cdb-89d4-5111-859c-350a9cf55f50,3e9000cf-aa0c-5861-98d1-f28855164fe2,401888fc-adda-5f09-ad82-d0fd9fd48765,41347da9-cb11-5ea8-9e7b-87a8b9902aa6,467943a4-8fa9-53e9-af02-0ba1df62ecae,48030802-6daf-5917-8f62-6e2e5b73bd9c,49c678de-8724-5ece-adde-7ea866d0c69b,4ab8a1bc-7ba8-5cb6-a352-8aa0ee6f6115,4f4d5a7e-0f6b-5086-9788-ab131206b998,53a5929d-4e1a-5c9e-986d-7f0c7123fce6,5483f311-dea6-595c-9216-fc56c4cca793,5a73aa3c-691c-53cf-89f9-c97d18105836,5eedf353-0d55-52d4-83af-7be24a73010b,6e26cc06-7477-5220-ad9c-9d6d949fa040,73720a25-f9df-5051-9711-d27e7a2d448c,76131f7d-3696-5523-83ae-da0d4b096ce1,7b734f88-a0d2-5c09-a4ae-4b8cf6a975fa,7bda8766-0d2e-5bd7-b98f-64cf77232533,7c6f2b9c-b934-532d-b535-860843be73ef,7ea83279-09e4-5aff-b01f-17b9435378f1,83d53cfd-c533-590d-b57c-6bc1b5b4337e,850eb7ec-b79e-589c-839d-c9d5816ac3d2,857bed0f-bd8f-5d41-9292-a1ad21377f32,89dc0cfa-7560-546a-be68-6f509fc942aa,8a783d97-dbed-5910-9471-d66d9baf3fd2,8e896f0e-6ad3-5135-99b2-c9471a1af0df,94ba8bc2-8af0-5b05-a0de-23885629265b,981736a9-4c15-57a5-8c75-a3c4f50fae42,9818e4fa-0eea-5862-a4a0-16ca5cb817ec,981f9f2e-c558-58e4-9a14-142d4d263e49,98878cd8-85fd-5ece-8ef5-533e9741064f,9a84929e-aaa6-5a51-9151-da109cc5772a,9c266a52-bd81-5652-aeba-320c919afdda,9c683d37-46a9-5b17-9873-69372b4bf428,9c68a1cb-e1b1-56c0-8548-07af3fb7d83b,a46a904d-a2ca-549a-936d-58171c86c801,a5704b36-25bf-502b-92ec-b8c9aa395d82,a9c0f975-a756-5508-975a-bef52708c15a,af43cb83-a6b9-5a28-b473-aa78e3896569,b1294787-c4ce-5329-859e-ffd826ba03dd,b2774d22-f323-5ea3-8784-01dfacb1d3c2,b6178293-c5c4-5e1d-af7c-2be1e54fe252,bdfbcfd6-76a4-5804-8167-8e60a92af96b,bf0583cb-3e3e-523d-b716-892837106dd1,bfd243e9-204a-5792-a989-717e9abfbc62,c27254df-e9cc-5c1e-ba3b-5d5e0e39c8df,c426c3fc-738e-5659-899c-604b4daf6077,c510527a-7bd4-586b-9a82-7123d61cc52a,c7836ac3-07e7-574c-9410-87d9f4d0ddb2,cac20118-bbf7-57ad-b943-6ed2fc2fcf42,ccce18cc-68f3-5018-b775-95aab94b18b3,d02c9fcf-a7d2-55fc-8185-5a69bfb8b948,d0c3b751-183d-53d8-ace3-5730be5bc99e,d34d42d9-f18a-5257-9f04-ec6cc756dc64,d5d84ce1-6e55-56e0-a971-3165747908e6,d8a0acaa-bb7c-5c11-873e-dea55543451b,dac50d1a-61b5-561a-a39f-f20d661a89de,dadff6a0-33dc-56e2-bb9d-60a875b43942,db9eb71b-462b-5810-b8e6-e18113b19976,de9fb5cb-dbcd-5c4d-bea8-9fa2a6a1b378,e1039c46-54f9-5f4d-a1f7-eff55694dcd6,e53f8319-9c56-5503-b157-317250c34eaa,e5779f2e-2ff7-5d95-bf46-16f4980c439c,ea067f1b-1e52-55f2-a9cd-f06b29043ff2,ea136595-86c7-5b20-b83e-f2bd22baac30,eb8fb933-420b-5473-a83b-d4c765032123,f02a239d-0dba-516d-bda1-3ad25190ed6c,f0c854a8-fa4c-5427-bd20-353c77945f24,f883c6e2-faa6-50bb-8483-f28f579b1033,fc3a3db4-a881-5644-bd4d-2b367ed2b6ea,feaaa918-c288-5e73-baaa-ebaffac2ce08","PatientName":"测试保留_15:37:21:617015","Status":"waitDesign"},{"Content":"123","CreateOn":"2020-11-10T07:37:40Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"repair","Doctor":"童医生9802","DoctorID":"6cd9867e-e831-5d3f-9691-8a877198930e","HospitalID":"","Hospitals":"","Id":"1a1dde12-f81a-58b0-8ba4-1ce108080347","IssueAdmins":"084a5d84-2500-5826-bea6-ef3acd599976","Lab":"三维技工所","LabAdmins":"084a5d84-2500-5826-bea6-ef3acd599976,12dc011b-d353-5104-a9fe-e540baf6318f,b2774d22-f323-5ea3-8784-01dfacb1d3c2","LabMembers":"00d94fdf-d95f-5659-a4b0-75e5d80719b2,00e1d41b-a060-5ee3-9b8a-2306d391fa3e,03d2c445-baa1-5cde-b23b-7bb17bc4f605,05159b13-0cb5-5241-b802-66e4e0aa86b5,084a5d84-2500-5826-bea6-ef3acd599976,0ad870d0-6c7b-5eca-8982-e2cdf4f192db,0e591456-8a3f-5c7e-8c64-5398bba23f46,11cb0e56-eee7-5c2b-9cf5-efd8bce0665d,12dc011b-d353-5104-a9fe-e540baf6318f,14f130c3-5a7d-563b-8312-9f0b06040c04,15c6f822-13eb-5aa2-aa7b-f50c03afed30,166ffe7d-6d75-51b8-aaf3-650ce4923227,16acf4c1-d9e8-5e48-9c18-ea0982a95611,17810fdc-9b27-575f-90b9-5e6e1670f9fc,17a839f0-94d7-531c-a6e4-b8c0c52e3fbd,17c574c1-8e72-5de5-a13b-ddd8b1fc7815,186e7c6c-6851-5949-a426-0155abed870b,1b4bb7f0-f780-505c-bcd8-37db7a4a5ff0,1ba11710-a57b-56e1-8dcf-b06db2e3d503,1e39d21b-008c-5904-9392-a2b063c8fc4e,2055aecf-bf43-5b89-ba85-5347b91eb694,22aa443f-0b91-5ab3-9af4-1b74a2699d92,23825ffb-db0f-56d1-b39e-fdbc13747a99,292eed56-a2c6-55f1-880d-4f5fb5db5aad,2ad9f533-9d1a-5473-aed5-6e0848809df5,2b4b1b83-d898-5539-8f67-d5fcf1533e4f,2e157bd1-8ecf-50f8-8300-311929bc06e0,3080d104-665a-5918-b797-d2d319f4c899,3620e132-0281-50ed-a8a2-0cb8b50b54f1,365bfc85-70d0-57f3-8dba-b7e51e85aecc,38917cdb-89d4-5111-859c-350a9cf55f50,3e9000cf-aa0c-5861-98d1-f28855164fe2,401888fc-adda-5f09-ad82-d0fd9fd48765,41347da9-cb11-5ea8-9e7b-87a8b9902aa6,467943a4-8fa9-53e9-af02-0ba1df62ecae,48030802-6daf-5917-8f62-6e2e5b73bd9c,49c678de-8724-5ece-adde-7ea866d0c69b,4ab8a1bc-7ba8-5cb6-a352-8aa0ee6f6115,4f4d5a7e-0f6b-5086-9788-ab131206b998,53a5929d-4e1a-5c9e-986d-7f0c7123fce6,5483f311-dea6-595c-9216-fc56c4cca793,5a73aa3c-691c-53cf-89f9-c97d18105836,5eedf353-0d55-52d4-83af-7be24a73010b,6e26cc06-7477-5220-ad9c-9d6d949fa040,73720a25-f9df-5051-9711-d27e7a2d448c,76131f7d-3696-5523-83ae-da0d4b096ce1,7b734f88-a0d2-5c09-a4ae-4b8cf6a975fa,7bda8766-0d2e-5bd7-b98f-64cf77232533,7c6f2b9c-b934-532d-b535-860843be73ef,7ea83279-09e4-5aff-b01f-17b9435378f1,83d53cfd-c533-590d-b57c-6bc1b5b4337e,850eb7ec-b79e-589c-839d-c9d5816ac3d2,857bed0f-bd8f-5d41-9292-a1ad21377f32,89dc0cfa-7560-546a-be68-6f509fc942aa,8a783d97-dbed-5910-9471-d66d9baf3fd2,8e896f0e-6ad3-5135-99b2-c9471a1af0df,94ba8bc2-8af0-5b05-a0de-23885629265b,981736a9-4c15-57a5-8c75-a3c4f50fae42,9818e4fa-0eea-5862-a4a0-16ca5cb817ec,981f9f2e-c558-58e4-9a14-142d4d263e49,98878cd8-85fd-5ece-8ef5-533e9741064f,9a84929e-aaa6-5a51-9151-da109cc5772a,9c266a52-bd81-5652-aeba-320c919afdda,9c683d37-46a9-5b17-9873-69372b4bf428,9c68a1cb-e1b1-56c0-8548-07af3fb7d83b,a46a904d-a2ca-549a-936d-58171c86c801,a5704b36-25bf-502b-92ec-b8c9aa395d82,a9c0f975-a756-5508-975a-bef52708c15a,af43cb83-a6b9-5a28-b473-aa78e3896569,b1294787-c4ce-5329-859e-ffd826ba03dd,b2774d22-f323-5ea3-8784-01dfacb1d3c2,b6178293-c5c4-5e1d-af7c-2be1e54fe252,bdfbcfd6-76a4-5804-8167-8e60a92af96b,bf0583cb-3e3e-523d-b716-892837106dd1,bfd243e9-204a-5792-a989-717e9abfbc62,c27254df-e9cc-5c1e-ba3b-5d5e0e39c8df,c426c3fc-738e-5659-899c-604b4daf6077,c510527a-7bd4-586b-9a82-7123d61cc52a,c7836ac3-07e7-574c-9410-87d9f4d0ddb2,cac20118-bbf7-57ad-b943-6ed2fc2fcf42,ccce18cc-68f3-5018-b775-95aab94b18b3,d02c9fcf-a7d2-55fc-8185-5a69bfb8b948,d0c3b751-183d-53d8-ace3-5730be5bc99e,d34d42d9-f18a-5257-9f04-ec6cc756dc64,d5d84ce1-6e55-56e0-a971-3165747908e6,d8a0acaa-bb7c-5c11-873e-dea55543451b,dac50d1a-61b5-561a-a39f-f20d661a89de,dadff6a0-33dc-56e2-bb9d-60a875b43942,db9eb71b-462b-5810-b8e6-e18113b19976,de9fb5cb-dbcd-5c4d-bea8-9fa2a6a1b378,e1039c46-54f9-5f4d-a1f7-eff55694dcd6,e53f8319-9c56-5503-b157-317250c34eaa,e5779f2e-2ff7-5d95-bf46-16f4980c439c,ea067f1b-1e52-55f2-a9cd-f06b29043ff2,ea136595-86c7-5b20-b83e-f2bd22baac30,eb8fb933-420b-5473-a83b-d4c765032123,f02a239d-0dba-516d-bda1-3ad25190ed6c,f0c854a8-fa4c-5427-bd20-353c77945f24,f883c6e2-faa6-50bb-8483-f28f579b1033,fc3a3db4-a881-5644-bd4d-2b367ed2b6ea,feaaa918-c288-5e73-baaa-ebaffac2ce08","PatientName":"测试保留_15:37:21:114007","Status":"waitAccept"},{"Content":"123","CreateOn":"2020-11-10T07:37:40Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"repair","Doctor":"童医生9802","DoctorID":"6cd9867e-e831-5d3f-9691-8a877198930e","HospitalID":"","Hospitals":"","Id":"273969f7-d63e-5371-93dd-968978728aba","IssueAdmins":"084a5d84-2500-5826-bea6-ef3acd599976","Lab":"三维技工所","LabAdmins":"084a5d84-2500-5826-bea6-ef3acd599976,12dc011b-d353-5104-a9fe-e540baf6318f,b2774d22-f323-5ea3-8784-01dfacb1d3c2","LabMembers":"00d94fdf-d95f-5659-a4b0-75e5d80719b2,00e1d41b-a060-5ee3-9b8a-2306d391fa3e,03d2c445-baa1-5cde-b23b-7bb17bc4f605,05159b13-0cb5-5241-b802-66e4e0aa86b5,084a5d84-2500-5826-bea6-ef3acd599976,0ad870d0-6c7b-5eca-8982-e2cdf4f192db,0e591456-8a3f-5c7e-8c64-5398bba23f46,11cb0e56-eee7-5c2b-9cf5-efd8bce0665d,12dc011b-d353-5104-a9fe-e540baf6318f,14f130c3-5a7d-563b-8312-9f0b06040c04,15c6f822-13eb-5aa2-aa7b-f50c03afed30,166ffe7d-6d75-51b8-aaf3-650ce4923227,16acf4c1-d9e8-5e48-9c18-ea0982a95611,17810fdc-9b27-575f-90b9-5e6e1670f9fc,17a839f0-94d7-531c-a6e4-b8c0c52e3fbd,17c574c1-8e72-5de5-a13b-ddd8b1fc7815,186e7c6c-6851-5949-a426-0155abed870b,1b4bb7f0-f780-505c-bcd8-37db7a4a5ff0,1ba11710-a57b-56e1-8dcf-b06db2e3d503,1e39d21b-008c-5904-9392-a2b063c8fc4e,2055aecf-bf43-5b89-ba85-5347b91eb694,22aa443f-0b91-5ab3-9af4-1b74a2699d92,23825ffb-db0f-56d1-b39e-fdbc13747a99,292eed56-a2c6-55f1-880d-4f5fb5db5aad,2ad9f533-9d1a-5473-aed5-6e0848809df5,2b4b1b83-d898-5539-8f67-d5fcf1533e4f,2e157bd1-8ecf-50f8-8300-311929bc06e0,3080d104-665a-5918-b797-d2d319f4c899,3620e132-0281-50ed-a8a2-0cb8b50b54f1,365bfc85-70d0-57f3-8dba-b7e51e85aecc,38917cdb-89d4-5111-859c-350a9cf55f50,3e9000cf-aa0c-5861-98d1-f28855164fe2,401888fc-adda-5f09-ad82-d0fd9fd48765,41347da9-cb11-5ea8-9e7b-87a8b9902aa6,467943a4-8fa9-53e9-af02-0ba1df62ecae,48030802-6daf-5917-8f62-6e2e5b73bd9c,49c678de-8724-5ece-adde-7ea866d0c69b,4ab8a1bc-7ba8-5cb6-a352-8aa0ee6f6115,4f4d5a7e-0f6b-5086-9788-ab131206b998,53a5929d-4e1a-5c9e-986d-7f0c7123fce6,5483f311-dea6-595c-9216-fc56c4cca793,5a73aa3c-691c-53cf-89f9-c97d18105836,5eedf353-0d55-52d4-83af-7be24a73010b,6e26cc06-7477-5220-ad9c-9d6d949fa040,73720a25-f9df-5051-9711-d27e7a2d448c,76131f7d-3696-5523-83ae-da0d4b096ce1,7b734f88-a0d2-5c09-a4ae-4b8cf6a975fa,7bda8766-0d2e-5bd7-b98f-64cf77232533,7c6f2b9c-b934-532d-b535-860843be73ef,7ea83279-09e4-5aff-b01f-17b9435378f1,83d53cfd-c533-590d-b57c-6bc1b5b4337e,850eb7ec-b79e-589c-839d-c9d5816ac3d2,857bed0f-bd8f-5d41-9292-a1ad21377f32,89dc0cfa-7560-546a-be68-6f509fc942aa,8a783d97-dbed-5910-9471-d66d9baf3fd2,8e896f0e-6ad3-5135-99b2-c9471a1af0df,94ba8bc2-8af0-5b05-a0de-23885629265b,981736a9-4c15-57a5-8c75-a3c4f50fae42,9818e4fa-0eea-5862-a4a0-16ca5cb817ec,981f9f2e-c558-58e4-9a14-142d4d263e49,98878cd8-85fd-5ece-8ef5-533e9741064f,9a84929e-aaa6-5a51-9151-da109cc5772a,9c266a52-bd81-5652-aeba-320c919afdda,9c683d37-46a9-5b17-9873-69372b4bf428,9c68a1cb-e1b1-56c0-8548-07af3fb7d83b,a46a904d-a2ca-549a-936d-58171c86c801,a5704b36-25bf-502b-92ec-b8c9aa395d82,a9c0f975-a756-5508-975a-bef52708c15a,af43cb83-a6b9-5a28-b473-aa78e3896569,b1294787-c4ce-5329-859e-ffd826ba03dd,b2774d22-f323-5ea3-8784-01dfacb1d3c2,b6178293-c5c4-5e1d-af7c-2be1e54fe252,bdfbcfd6-76a4-5804-8167-8e60a92af96b,bf0583cb-3e3e-523d-b716-892837106dd1,bfd243e9-204a-5792-a989-717e9abfbc62,c27254df-e9cc-5c1e-ba3b-5d5e0e39c8df,c426c3fc-738e-5659-899c-604b4daf6077,c510527a-7bd4-586b-9a82-7123d61cc52a,c7836ac3-07e7-574c-9410-87d9f4d0ddb2,cac20118-bbf7-57ad-b943-6ed2fc2fcf42,ccce18cc-68f3-5018-b775-95aab94b18b3,d02c9fcf-a7d2-55fc-8185-5a69bfb8b948,d0c3b751-183d-53d8-ace3-5730be5bc99e,d34d42d9-f18a-5257-9f04-ec6cc756dc64,d5d84ce1-6e55-56e0-a971-3165747908e6,d8a0acaa-bb7c-5c11-873e-dea55543451b,dac50d1a-61b5-561a-a39f-f20d661a89de,dadff6a0-33dc-56e2-bb9d-60a875b43942,db9eb71b-462b-5810-b8e6-e18113b19976,de9fb5cb-dbcd-5c4d-bea8-9fa2a6a1b378,e1039c46-54f9-5f4d-a1f7-eff55694dcd6,e53f8319-9c56-5503-b157-317250c34eaa,e5779f2e-2ff7-5d95-bf46-16f4980c439c,ea067f1b-1e52-55f2-a9cd-f06b29043ff2,ea136595-86c7-5b20-b83e-f2bd22baac30,eb8fb933-420b-5473-a83b-d4c765032123,f02a239d-0dba-516d-bda1-3ad25190ed6c,f0c854a8-fa4c-5427-bd20-353c77945f24,f883c6e2-faa6-50bb-8483-f28f579b1033,fc3a3db4-a881-5644-bd4d-2b367ed2b6ea,feaaa918-c288-5e73-baaa-ebaffac2ce08","PatientName":"测试保留_15:37:21:553014","Status":"waitAccept"},{"Content":"123","CreateOn":"2020-11-10T07:37:40Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"repair","Doctor":"童医生9802","DoctorID":"6cd9867e-e831-5d3f-9691-8a877198930e","HospitalID":"","Hospitals":"","Id":"2cf8f767-1c9a-5e87-a187-64a8eedc0242","IssueAdmins":"084a5d84-2500-5826-bea6-ef3acd599976","Lab":"三维技工所","LabAdmins":"084a5d84-2500-5826-bea6-ef3acd599976,12dc011b-d353-5104-a9fe-e540baf6318f,b2774d22-f323-5ea3-8784-01dfacb1d3c2","LabMembers":"00d94fdf-d95f-5659-a4b0-75e5d80719b2,00e1d41b-a060-5ee3-9b8a-2306d391fa3e,03d2c445-baa1-5cde-b23b-7bb17bc4f605,05159b13-0cb5-5241-b802-66e4e0aa86b5,084a5d84-2500-5826-bea6-ef3acd599976,0ad870d0-6c7b-5eca-8982-e2cdf4f192db,0e591456-8a3f-5c7e-8c64-5398bba23f46,11cb0e56-eee7-5c2b-9cf5-efd8bce0665d,12dc011b-d353-5104-a9fe-e540baf6318f,14f130c3-5a7d-563b-8312-9f0b06040c04,15c6f822-13eb-5aa2-aa7b-f50c03afed30,166ffe7d-6d75-51b8-aaf3-650ce4923227,16acf4c1-d9e8-5e48-9c18-ea0982a95611,17810fdc-9b27-575f-90b9-5e6e1670f9fc,17a839f0-94d7-531c-a6e4-b8c0c52e3fbd,17c574c1-8e72-5de5-a13b-ddd8b1fc7815,186e7c6c-6851-5949-a426-0155abed870b,1b4bb7f0-f780-505c-bcd8-37db7a4a5ff0,1ba11710-a57b-56e1-8dcf-b06db2e3d503,1e39d21b-008c-5904-9392-a2b063c8fc4e,2055aecf-bf43-5b89-ba85-5347b91eb694,22aa443f-0b91-5ab3-9af4-1b74a2699d92,23825ffb-db0f-56d1-b39e-fdbc13747a99,292eed56-a2c6-55f1-880d-4f5fb5db5aad,2ad9f533-9d1a-5473-aed5-6e0848809df5,2b4b1b83-d898-5539-8f67-d5fcf1533e4f,2e157bd1-8ecf-50f8-8300-311929bc06e0,3080d104-665a-5918-b797-d2d319f4c899,3620e132-0281-50ed-a8a2-0cb8b50b54f1,365bfc85-70d0-57f3-8dba-b7e51e85aecc,38917cdb-89d4-5111-859c-350a9cf55f50,3e9000cf-aa0c-5861-98d1-f28855164fe2,401888fc-adda-5f09-ad82-d0fd9fd48765,41347da9-cb11-5ea8-9e7b-87a8b9902aa6,467943a4-8fa9-53e9-af02-0ba1df62ecae,48030802-6daf-5917-8f62-6e2e5b73bd9c,49c678de-8724-5ece-adde-7ea866d0c69b,4ab8a1bc-7ba8-5cb6-a352-8aa0ee6f6115,4f4d5a7e-0f6b-5086-9788-ab131206b998,53a5929d-4e1a-5c9e-986d-7f0c7123fce6,5483f311-dea6-595c-9216-fc56c4cca793,5a73aa3c-691c-53cf-89f9-c97d18105836,5eedf353-0d55-52d4-83af-7be24a73010b,6e26cc06-7477-5220-ad9c-9d6d949fa040,73720a25-f9df-5051-9711-d27e7a2d448c,76131f7d-3696-5523-83ae-da0d4b096ce1,7b734f88-a0d2-5c09-a4ae-4b8cf6a975fa,7bda8766-0d2e-5bd7-b98f-64cf77232533,7c6f2b9c-b934-532d-b535-860843be73ef,7ea83279-09e4-5aff-b01f-17b9435378f1,83d53cfd-c533-590d-b57c-6bc1b5b4337e,850eb7ec-b79e-589c-839d-c9d5816ac3d2,857bed0f-bd8f-5d41-9292-a1ad21377f32,89dc0cfa-7560-546a-be68-6f509fc942aa,8a783d97-dbed-5910-9471-d66d9baf3fd2,8e896f0e-6ad3-5135-99b2-c9471a1af0df,94ba8bc2-8af0-5b05-a0de-23885629265b,981736a9-4c15-57a5-8c75-a3c4f50fae42,9818e4fa-0eea-5862-a4a0-16ca5cb817ec,981f9f2e-c558-58e4-9a14-142d4d263e49,98878cd8-85fd-5ece-8ef5-533e9741064f,9a84929e-aaa6-5a51-9151-da109cc5772a,9c266a52-bd81-5652-aeba-320c919afdda,9c683d37-46a9-5b17-9873-69372b4bf428,9c68a1cb-e1b1-56c0-8548-07af3fb7d83b,a46a904d-a2ca-549a-936d-58171c86c801,a5704b36-25bf-502b-92ec-b8c9aa395d82,a9c0f975-a756-5508-975a-bef52708c15a,af43cb83-a6b9-5a28-b473-aa78e3896569,b1294787-c4ce-5329-859e-ffd826ba03dd,b2774d22-f323-5ea3-8784-01dfacb1d3c2,b6178293-c5c4-5e1d-af7c-2be1e54fe252,bdfbcfd6-76a4-5804-8167-8e60a92af96b,bf0583cb-3e3e-523d-b716-892837106dd1,bfd243e9-204a-5792-a989-717e9abfbc62,c27254df-e9cc-5c1e-ba3b-5d5e0e39c8df,c426c3fc-738e-5659-899c-604b4daf6077,c510527a-7bd4-586b-9a82-7123d61cc52a,c7836ac3-07e7-574c-9410-87d9f4d0ddb2,cac20118-bbf7-57ad-b943-6ed2fc2fcf42,ccce18cc-68f3-5018-b775-95aab94b18b3,d02c9fcf-a7d2-55fc-8185-5a69bfb8b948,d0c3b751-183d-53d8-ace3-5730be5bc99e,d34d42d9-f18a-5257-9f04-ec6cc756dc64,d5d84ce1-6e55-56e0-a971-3165747908e6,d8a0acaa-bb7c-5c11-873e-dea55543451b,dac50d1a-61b5-561a-a39f-f20d661a89de,dadff6a0-33dc-56e2-bb9d-60a875b43942,db9eb71b-462b-5810-b8e6-e18113b19976,de9fb5cb-dbcd-5c4d-bea8-9fa2a6a1b378,e1039c46-54f9-5f4d-a1f7-eff55694dcd6,e53f8319-9c56-5503-b157-317250c34eaa,e5779f2e-2ff7-5d95-bf46-16f4980c439c,ea067f1b-1e52-55f2-a9cd-f06b29043ff2,ea136595-86c7-5b20-b83e-f2bd22baac30,eb8fb933-420b-5473-a83b-d4c765032123,f02a239d-0dba-516d-bda1-3ad25190ed6c,f0c854a8-fa4c-5427-bd20-353c77945f24,f883c6e2-faa6-50bb-8483-f28f579b1033,fc3a3db4-a881-5644-bd4d-2b367ed2b6ea,feaaa918-c288-5e73-baaa-ebaffac2ce08","PatientName":"测试保留_15:37:21:051006","Status":"waitAccept"},{"Content":"123","CreateOn":"2020-11-10T07:37:40Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"repair","Doctor":"童医生9802","DoctorID":"6cd9867e-e831-5d3f-9691-8a877198930e","HospitalID":"","Hospitals":"","Id":"315b9112-a177-5ad7-a20e-3ce96070199a","IssueAdmins":"084a5d84-2500-5826-bea6-ef3acd599976","Lab":"三维技工所","LabAdmins":"084a5d84-2500-5826-bea6-ef3acd599976,12dc011b-d353-5104-a9fe-e540baf6318f,b2774d22-f323-5ea3-8784-01dfacb1d3c2","LabMembers":"00d94fdf-d95f-5659-a4b0-75e5d80719b2,00e1d41b-a060-5ee3-9b8a-2306d391fa3e,03d2c445-baa1-5cde-b23b-7bb17bc4f605,05159b13-0cb5-5241-b802-66e4e0aa86b5,084a5d84-2500-5826-bea6-ef3acd599976,0ad870d0-6c7b-5eca-8982-e2cdf4f192db,0e591456-8a3f-5c7e-8c64-5398bba23f46,11cb0e56-eee7-5c2b-9cf5-efd8bce0665d,12dc011b-d353-5104-a9fe-e540baf6318f,14f130c3-5a7d-563b-8312-9f0b06040c04,15c6f822-13eb-5aa2-aa7b-f50c03afed30,166ffe7d-6d75-51b8-aaf3-650ce4923227,16acf4c1-d9e8-5e48-9c18-ea0982a95611,17810fdc-9b27-575f-90b9-5e6e1670f9fc,17a839f0-94d7-531c-a6e4-b8c0c52e3fbd,17c574c1-8e72-5de5-a13b-ddd8b1fc7815,186e7c6c-6851-5949-a426-0155abed870b,1b4bb7f0-f780-505c-bcd8-37db7a4a5ff0,1ba11710-a57b-56e1-8dcf-b06db2e3d503,1e39d21b-008c-5904-9392-a2b063c8fc4e,2055aecf-bf43-5b89-ba85-5347b91eb694,22aa443f-0b91-5ab3-9af4-1b74a2699d92,23825ffb-db0f-56d1-b39e-fdbc13747a99,292eed56-a2c6-55f1-880d-4f5fb5db5aad,2ad9f533-9d1a-5473-aed5-6e0848809df5,2b4b1b83-d898-5539-8f67-d5fcf1533e4f,2e157bd1-8ecf-50f8-8300-311929bc06e0,3080d104-665a-5918-b797-d2d319f4c899,3620e132-0281-50ed-a8a2-0cb8b50b54f1,365bfc85-70d0-57f3-8dba-b7e51e85aecc,38917cdb-89d4-5111-859c-350a9cf55f50,3e9000cf-aa0c-5861-98d1-f28855164fe2,401888fc-adda-5f09-ad82-d0fd9fd48765,41347da9-cb11-5ea8-9e7b-87a8b9902aa6,467943a4-8fa9-53e9-af02-0ba1df62ecae,48030802-6daf-5917-8f62-6e2e5b73bd9c,49c678de-8724-5ece-adde-7ea866d0c69b,4ab8a1bc-7ba8-5cb6-a352-8aa0ee6f6115,4f4d5a7e-0f6b-5086-9788-ab131206b998,53a5929d-4e1a-5c9e-986d-7f0c7123fce6,5483f311-dea6-595c-9216-fc56c4cca793,5a73aa3c-691c-53cf-89f9-c97d18105836,5eedf353-0d55-52d4-83af-7be24a73010b,6e26cc06-7477-5220-ad9c-9d6d949fa040,73720a25-f9df-5051-9711-d27e7a2d448c,76131f7d-3696-5523-83ae-da0d4b096ce1,7b734f88-a0d2-5c09-a4ae-4b8cf6a975fa,7bda8766-0d2e-5bd7-b98f-64cf77232533,7c6f2b9c-b934-532d-b535-860843be73ef,7ea83279-09e4-5aff-b01f-17b9435378f1,83d53cfd-c533-590d-b57c-6bc1b5b4337e,850eb7ec-b79e-589c-839d-c9d5816ac3d2,857bed0f-bd8f-5d41-9292-a1ad21377f32,89dc0cfa-7560-546a-be68-6f509fc942aa,8a783d97-dbed-5910-9471-d66d9baf3fd2,8e896f0e-6ad3-5135-99b2-c9471a1af0df,94ba8bc2-8af0-5b05-a0de-23885629265b,981736a9-4c15-57a5-8c75-a3c4f50fae42,9818e4fa-0eea-5862-a4a0-16ca5cb817ec,981f9f2e-c558-58e4-9a14-142d4d263e49,98878cd8-85fd-5ece-8ef5-533e9741064f,9a84929e-aaa6-5a51-9151-da109cc5772a,9c266a52-bd81-5652-aeba-320c919afdda,9c683d37-46a9-5b17-9873-69372b4bf428,9c68a1cb-e1b1-56c0-8548-07af3fb7d83b,a46a904d-a2ca-549a-936d-58171c86c801,a5704b36-25bf-502b-92ec-b8c9aa395d82,a9c0f975-a756-5508-975a-bef52708c15a,af43cb83-a6b9-5a28-b473-aa78e3896569,b1294787-c4ce-5329-859e-ffd826ba03dd,b2774d22-f323-5ea3-8784-01dfacb1d3c2,b6178293-c5c4-5e1d-af7c-2be1e54fe252,bdfbcfd6-76a4-5804-8167-8e60a92af96b,bf0583cb-3e3e-523d-b716-892837106dd1,bfd243e9-204a-5792-a989-717e9abfbc62,c27254df-e9cc-5c1e-ba3b-5d5e0e39c8df,c426c3fc-738e-5659-899c-604b4daf6077,c510527a-7bd4-586b-9a82-7123d61cc52a,c7836ac3-07e7-574c-9410-87d9f4d0ddb2,cac20118-bbf7-57ad-b943-6ed2fc2fcf42,ccce18cc-68f3-5018-b775-95aab94b18b3,d02c9fcf-a7d2-55fc-8185-5a69bfb8b948,d0c3b751-183d-53d8-ace3-5730be5bc99e,d34d42d9-f18a-5257-9f04-ec6cc756dc64,d5d84ce1-6e55-56e0-a971-3165747908e6,d8a0acaa-bb7c-5c11-873e-dea55543451b,dac50d1a-61b5-561a-a39f-f20d661a89de,dadff6a0-33dc-56e2-bb9d-60a875b43942,db9eb71b-462b-5810-b8e6-e18113b19976,de9fb5cb-dbcd-5c4d-bea8-9fa2a6a1b378,e1039c46-54f9-5f4d-a1f7-eff55694dcd6,e53f8319-9c56-5503-b157-317250c34eaa,e5779f2e-2ff7-5d95-bf46-16f4980c439c,ea067f1b-1e52-55f2-a9cd-f06b29043ff2,ea136595-86c7-5b20-b83e-f2bd22baac30,eb8fb933-420b-5473-a83b-d4c765032123,f02a239d-0dba-516d-bda1-3ad25190ed6c,f0c854a8-fa4c-5427-bd20-353c77945f24,f883c6e2-faa6-50bb-8483-f28f579b1033,fc3a3db4-a881-5644-bd4d-2b367ed2b6ea,feaaa918-c288-5e73-baaa-ebaffac2ce08","PatientName":"测试保留_15:37:21:426012","Status":"waitAccept"},{"Content":"123","CreateOn":"2020-11-10T07:37:40Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"repair","Doctor":"童医生9802","DoctorID":"6cd9867e-e831-5d3f-9691-8a877198930e","HospitalID":"","Hospitals":"","Id":"3f8be7ea-cfc4-596a-900d-cde73f5090ce","IssueAdmins":"084a5d84-2500-5826-bea6-ef3acd599976","Lab":"三维技工所","LabAdmins":"084a5d84-2500-5826-bea6-ef3acd599976,12dc011b-d353-5104-a9fe-e540baf6318f,b2774d22-f323-5ea3-8784-01dfacb1d3c2","LabMembers":"00d94fdf-d95f-5659-a4b0-75e5d80719b2,00e1d41b-a060-5ee3-9b8a-2306d391fa3e,03d2c445-baa1-5cde-b23b-7bb17bc4f605,05159b13-0cb5-5241-b802-66e4e0aa86b5,084a5d84-2500-5826-bea6-ef3acd599976,0ad870d0-6c7b-5eca-8982-e2cdf4f192db,0e591456-8a3f-5c7e-8c64-5398bba23f46,11cb0e56-eee7-5c2b-9cf5-efd8bce0665d,12dc011b-d353-5104-a9fe-e540baf6318f,14f130c3-5a7d-563b-8312-9f0b06040c04,15c6f822-13eb-5aa2-aa7b-f50c03afed30,166ffe7d-6d75-51b8-aaf3-650ce4923227,16acf4c1-d9e8-5e48-9c18-ea0982a95611,17810fdc-9b27-575f-90b9-5e6e1670f9fc,17a839f0-94d7-531c-a6e4-b8c0c52e3fbd,17c574c1-8e72-5de5-a13b-ddd8b1fc7815,186e7c6c-6851-5949-a426-0155abed870b,1b4bb7f0-f780-505c-bcd8-37db7a4a5ff0,1ba11710-a57b-56e1-8dcf-b06db2e3d503,1e39d21b-008c-5904-9392-a2b063c8fc4e,2055aecf-bf43-5b89-ba85-5347b91eb694,22aa443f-0b91-5ab3-9af4-1b74a2699d92,23825ffb-db0f-56d1-b39e-fdbc13747a99,292eed56-a2c6-55f1-880d-4f5fb5db5aad,2ad9f533-9d1a-5473-aed5-6e0848809df5,2b4b1b83-d898-5539-8f67-d5fcf1533e4f,2e157bd1-8ecf-50f8-8300-311929bc06e0,3080d104-665a-5918-b797-d2d319f4c899,3620e132-0281-50ed-a8a2-0cb8b50b54f1,365bfc85-70d0-57f3-8dba-b7e51e85aecc,38917cdb-89d4-5111-859c-350a9cf55f50,3e9000cf-aa0c-5861-98d1-f28855164fe2,401888fc-adda-5f09-ad82-d0fd9fd48765,41347da9-cb11-5ea8-9e7b-87a8b9902aa6,467943a4-8fa9-53e9-af02-0ba1df62ecae,48030802-6daf-5917-8f62-6e2e5b73bd9c,49c678de-8724-5ece-adde-7ea866d0c69b,4ab8a1bc-7ba8-5cb6-a352-8aa0ee6f6115,4f4d5a7e-0f6b-5086-9788-ab131206b998,53a5929d-4e1a-5c9e-986d-7f0c7123fce6,5483f311-dea6-595c-9216-fc56c4cca793,5a73aa3c-691c-53cf-89f9-c97d18105836,5eedf353-0d55-52d4-83af-7be24a73010b,6e26cc06-7477-5220-ad9c-9d6d949fa040,73720a25-f9df-5051-9711-d27e7a2d448c,76131f7d-3696-5523-83ae-da0d4b096ce1,7b734f88-a0d2-5c09-a4ae-4b8cf6a975fa,7bda8766-0d2e-5bd7-b98f-64cf77232533,7c6f2b9c-b934-532d-b535-860843be73ef,7ea83279-09e4-5aff-b01f-17b9435378f1,83d53cfd-c533-590d-b57c-6bc1b5b4337e,850eb7ec-b79e-589c-839d-c9d5816ac3d2,857bed0f-bd8f-5d41-9292-a1ad21377f32,89dc0cfa-7560-546a-be68-6f509fc942aa,8a783d97-dbed-5910-9471-d66d9baf3fd2,8e896f0e-6ad3-5135-99b2-c9471a1af0df,94ba8bc2-8af0-5b05-a0de-23885629265b,981736a9-4c15-57a5-8c75-a3c4f50fae42,9818e4fa-0eea-5862-a4a0-16ca5cb817ec,981f9f2e-c558-58e4-9a14-142d4d263e49,98878cd8-85fd-5ece-8ef5-533e9741064f,9a84929e-aaa6-5a51-9151-da109cc5772a,9c266a52-bd81-5652-aeba-320c919afdda,9c683d37-46a9-5b17-9873-69372b4bf428,9c68a1cb-e1b1-56c0-8548-07af3fb7d83b,a46a904d-a2ca-549a-936d-58171c86c801,a5704b36-25bf-502b-92ec-b8c9aa395d82,a9c0f975-a756-5508-975a-bef52708c15a,af43cb83-a6b9-5a28-b473-aa78e3896569,b1294787-c4ce-5329-859e-ffd826ba03dd,b2774d22-f323-5ea3-8784-01dfacb1d3c2,b6178293-c5c4-5e1d-af7c-2be1e54fe252,bdfbcfd6-76a4-5804-8167-8e60a92af96b,bf0583cb-3e3e-523d-b716-892837106dd1,bfd243e9-204a-5792-a989-717e9abfbc62,c27254df-e9cc-5c1e-ba3b-5d5e0e39c8df,c426c3fc-738e-5659-899c-604b4daf6077,c510527a-7bd4-586b-9a82-7123d61cc52a,c7836ac3-07e7-574c-9410-87d9f4d0ddb2,cac20118-bbf7-57ad-b943-6ed2fc2fcf42,ccce18cc-68f3-5018-b775-95aab94b18b3,d02c9fcf-a7d2-55fc-8185-5a69bfb8b948,d0c3b751-183d-53d8-ace3-5730be5bc99e,d34d42d9-f18a-5257-9f04-ec6cc756dc64,d5d84ce1-6e55-56e0-a971-3165747908e6,d8a0acaa-bb7c-5c11-873e-dea55543451b,dac50d1a-61b5-561a-a39f-f20d661a89de,dadff6a0-33dc-56e2-bb9d-60a875b43942,db9eb71b-462b-5810-b8e6-e18113b19976,de9fb5cb-dbcd-5c4d-bea8-9fa2a6a1b378,e1039c46-54f9-5f4d-a1f7-eff55694dcd6,e53f8319-9c56-5503-b157-317250c34eaa,e5779f2e-2ff7-5d95-bf46-16f4980c439c,ea067f1b-1e52-55f2-a9cd-f06b29043ff2,ea136595-86c7-5b20-b83e-f2bd22baac30,eb8fb933-420b-5473-a83b-d4c765032123,f02a239d-0dba-516d-bda1-3ad25190ed6c,f0c854a8-fa4c-5427-bd20-353c77945f24,f883c6e2-faa6-50bb-8483-f28f579b1033,fc3a3db4-a881-5644-bd4d-2b367ed2b6ea,feaaa918-c288-5e73-baaa-ebaffac2ce08","PatientName":"测试保留_15:37:21:304010","Status":"waitAccept"},{"Content":"123","CreateOn":"2020-11-10T07:37:40Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"repair","Doctor":"童医生9802","DoctorID":"6cd9867e-e831-5d3f-9691-8a877198930e","HospitalID":"","Hospitals":"","Id":"51ab9bce-b391-5df4-a14f-d6d5c42efaf2","IssueAdmins":"084a5d84-2500-5826-bea6-ef3acd599976","Lab":"三维技工所","LabAdmins":"084a5d84-2500-5826-bea6-ef3acd599976,12dc011b-d353-5104-a9fe-e540baf6318f,b2774d22-f323-5ea3-8784-01dfacb1d3c2","LabMembers":"00d94fdf-d95f-5659-a4b0-75e5d80719b2,00e1d41b-a060-5ee3-9b8a-2306d391fa3e,03d2c445-baa1-5cde-b23b-7bb17bc4f605,05159b13-0cb5-5241-b802-66e4e0aa86b5,084a5d84-2500-5826-bea6-ef3acd599976,0ad870d0-6c7b-5eca-8982-e2cdf4f192db,0e591456-8a3f-5c7e-8c64-5398bba23f46,11cb0e56-eee7-5c2b-9cf5-efd8bce0665d,12dc011b-d353-5104-a9fe-e540baf6318f,14f130c3-5a7d-563b-8312-9f0b06040c04,15c6f822-13eb-5aa2-aa7b-f50c03afed30,166ffe7d-6d75-51b8-aaf3-650ce4923227,16acf4c1-d9e8-5e48-9c18-ea0982a95611,17810fdc-9b27-575f-90b9-5e6e1670f9fc,17a839f0-94d7-531c-a6e4-b8c0c52e3fbd,17c574c1-8e72-5de5-a13b-ddd8b1fc7815,186e7c6c-6851-5949-a426-0155abed870b,1b4bb7f0-f780-505c-bcd8-37db7a4a5ff0,1ba11710-a57b-56e1-8dcf-b06db2e3d503,1e39d21b-008c-5904-9392-a2b063c8fc4e,2055aecf-bf43-5b89-ba85-5347b91eb694,22aa443f-0b91-5ab3-9af4-1b74a2699d92,23825ffb-db0f-56d1-b39e-fdbc13747a99,292eed56-a2c6-55f1-880d-4f5fb5db5aad,2ad9f533-9d1a-5473-aed5-6e0848809df5,2b4b1b83-d898-5539-8f67-d5fcf1533e4f,2e157bd1-8ecf-50f8-8300-311929bc06e0,3080d104-665a-5918-b797-d2d319f4c899,3620e132-0281-50ed-a8a2-0cb8b50b54f1,365bfc85-70d0-57f3-8dba-b7e51e85aecc,38917cdb-89d4-5111-859c-350a9cf55f50,3e9000cf-aa0c-5861-98d1-f28855164fe2,401888fc-adda-5f09-ad82-d0fd9fd48765,41347da9-cb11-5ea8-9e7b-87a8b9902aa6,467943a4-8fa9-53e9-af02-0ba1df62ecae,48030802-6daf-5917-8f62-6e2e5b73bd9c,49c678de-8724-5ece-adde-7ea866d0c69b,4ab8a1bc-7ba8-5cb6-a352-8aa0ee6f6115,4f4d5a7e-0f6b-5086-9788-ab131206b998,53a5929d-4e1a-5c9e-986d-7f0c7123fce6,5483f311-dea6-595c-9216-fc56c4cca793,5a73aa3c-691c-53cf-89f9-c97d18105836,5eedf353-0d55-52d4-83af-7be24a73010b,6e26cc06-7477-5220-ad9c-9d6d949fa040,73720a25-f9df-5051-9711-d27e7a2d448c,76131f7d-3696-5523-83ae-da0d4b096ce1,7b734f88-a0d2-5c09-a4ae-4b8cf6a975fa,7bda8766-0d2e-5bd7-b98f-64cf77232533,7c6f2b9c-b934-532d-b535-860843be73ef,7ea83279-09e4-5aff-b01f-17b9435378f1,83d53cfd-c533-590d-b57c-6bc1b5b4337e,850eb7ec-b79e-589c-839d-c9d5816ac3d2,857bed0f-bd8f-5d41-9292-a1ad21377f32,89dc0cfa-7560-546a-be68-6f509fc942aa,8a783d97-dbed-5910-9471-d66d9baf3fd2,8e896f0e-6ad3-5135-99b2-c9471a1af0df,94ba8bc2-8af0-5b05-a0de-23885629265b,981736a9-4c15-57a5-8c75-a3c4f50fae42,9818e4fa-0eea-5862-a4a0-16ca5cb817ec,981f9f2e-c558-58e4-9a14-142d4d263e49,98878cd8-85fd-5ece-8ef5-533e9741064f,9a84929e-aaa6-5a51-9151-da109cc5772a,9c266a52-bd81-5652-aeba-320c919afdda,9c683d37-46a9-5b17-9873-69372b4bf428,9c68a1cb-e1b1-56c0-8548-07af3fb7d83b,a46a904d-a2ca-54</t>
+      <c r="M2" s="21" t="inlineStr">
+        <is>
+          <t>{"status":"fail","result":"illegalErr"}{"status":"success"}</t>
         </is>
       </c>
       <c r="N2" s="0" t="inlineStr">
@@ -738,60 +1338,60 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="36.3" customHeight="1" s="1">
-      <c r="A3" s="14" t="inlineStr">
+    <row customHeight="1" ht="36.3" r="3" s="1">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>案例列表</t>
         </is>
       </c>
-      <c r="B3" s="14" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>dental_cloud_002</t>
         </is>
       </c>
-      <c r="C3" s="14" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>关系网</t>
         </is>
       </c>
-      <c r="D3" s="18" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>/api/u/dental/c/list</t>
         </is>
       </c>
-      <c r="E3" s="14" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F3" s="13" t="inlineStr">
+      <c r="F3" s="7" t="inlineStr">
         <is>
           <t>{'pageSize':20,'page':1}</t>
         </is>
       </c>
-      <c r="G3" s="13" t="n"/>
-      <c r="H3" s="13" t="n"/>
-      <c r="I3" s="15" t="inlineStr">
+      <c r="G3" s="7" t="n"/>
+      <c r="H3" s="7" t="n"/>
+      <c r="I3" s="12" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="J3" s="16" t="inlineStr">
+      <c r="J3" s="13" t="inlineStr">
         <is>
           <t>200</t>
         </is>
       </c>
-      <c r="K3" s="7" t="inlineStr">
+      <c r="K3" s="10" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="L3" s="21" t="inlineStr">
+      <c r="L3" s="16" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="M3" s="20" t="inlineStr">
+      <c r="M3" s="17" t="inlineStr">
         <is>
           <t>tongjingwei</t>
         </is>
@@ -802,302 +1402,302 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="29.95" customHeight="1" s="1">
-      <c r="A4" s="5" t="n"/>
-      <c r="B4" s="5" t="n"/>
-      <c r="C4" s="5" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="5" t="n"/>
-      <c r="F4" s="7" t="n"/>
-      <c r="G4" s="7" t="n"/>
-      <c r="H4" s="7" t="n"/>
-      <c r="I4" s="11" t="n"/>
-      <c r="J4" s="12" t="n"/>
-      <c r="K4" s="7" t="n"/>
-      <c r="L4" s="19" t="inlineStr">
+    <row customHeight="1" ht="29.95" r="4" s="1">
+      <c r="A4" s="8" t="n"/>
+      <c r="B4" s="8" t="n"/>
+      <c r="C4" s="8" t="n"/>
+      <c r="D4" s="9" t="n"/>
+      <c r="E4" s="8" t="n"/>
+      <c r="F4" s="10" t="n"/>
+      <c r="G4" s="10" t="n"/>
+      <c r="H4" s="10" t="n"/>
+      <c r="I4" s="18" t="n"/>
+      <c r="J4" s="19" t="n"/>
+      <c r="K4" s="10" t="n"/>
+      <c r="L4" s="14" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
-      <c r="M4" s="20" t="inlineStr">
+      <c r="M4" s="17" t="inlineStr">
         <is>
           <t>{"result":"","status":"success"}{"result":"noPerm","status":"fail"}</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="0" t="inlineStr">
         <is>
           <t>tongjingwei</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="29.95" customHeight="1" s="1">
-      <c r="A5" s="5" t="n"/>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="7" t="n"/>
-      <c r="G5" s="7" t="n"/>
-      <c r="H5" s="7" t="n"/>
-      <c r="I5" s="11" t="n"/>
-      <c r="J5" s="12" t="n"/>
-      <c r="K5" s="7" t="n"/>
-      <c r="L5" s="7" t="n"/>
-      <c r="M5" s="6" t="n"/>
-    </row>
-    <row r="6" ht="29.95" customHeight="1" s="1">
-      <c r="A6" s="5" t="n"/>
-      <c r="B6" s="5" t="n"/>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="7" t="n"/>
-      <c r="G6" s="7" t="n"/>
-      <c r="H6" s="7" t="n"/>
-      <c r="I6" s="11" t="n"/>
-      <c r="J6" s="12" t="n"/>
-      <c r="K6" s="7" t="n"/>
-      <c r="L6" s="7" t="n"/>
-      <c r="M6" s="6" t="n"/>
-    </row>
-    <row r="7" ht="43.6" customHeight="1" s="1">
-      <c r="A7" s="5" t="n"/>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="7" t="n"/>
-      <c r="G7" s="7" t="n"/>
-      <c r="H7" s="7" t="n"/>
-      <c r="I7" s="11" t="n"/>
-      <c r="J7" s="12" t="n"/>
-      <c r="K7" s="7" t="n"/>
-      <c r="L7" s="7" t="n"/>
-      <c r="M7" s="6" t="n"/>
-    </row>
-    <row r="8" ht="55.55" customHeight="1" s="1">
-      <c r="A8" s="5" t="n"/>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="6" t="n"/>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="7" t="n"/>
-      <c r="G8" s="7" t="n"/>
-      <c r="H8" s="7" t="n"/>
-      <c r="I8" s="11" t="n"/>
-      <c r="J8" s="12" t="n"/>
-      <c r="K8" s="7" t="n"/>
-      <c r="L8" s="7" t="n"/>
-      <c r="M8" s="6" t="n"/>
-    </row>
-    <row r="9" ht="57.05" customHeight="1" s="1">
-      <c r="A9" s="5" t="n"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="6" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="7" t="n"/>
-      <c r="G9" s="7" t="n"/>
-      <c r="H9" s="7" t="n"/>
-      <c r="I9" s="11" t="n"/>
-      <c r="J9" s="12" t="n"/>
-      <c r="K9" s="7" t="n"/>
-      <c r="L9" s="7" t="n"/>
-      <c r="M9" s="6" t="n"/>
-    </row>
-    <row r="10" ht="52.5" customHeight="1" s="1">
-      <c r="A10" s="5" t="n"/>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="6" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="7" t="n"/>
-      <c r="G10" s="7" t="n"/>
-      <c r="H10" s="7" t="n"/>
-      <c r="I10" s="11" t="n"/>
-      <c r="J10" s="12" t="n"/>
-      <c r="K10" s="7" t="n"/>
-      <c r="L10" s="7" t="n"/>
-      <c r="M10" s="6" t="n"/>
-    </row>
-    <row r="11" ht="51.75" customHeight="1" s="1">
-      <c r="A11" s="5" t="n"/>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="6" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="7" t="n"/>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="7" t="n"/>
-      <c r="I11" s="11" t="n"/>
-      <c r="J11" s="12" t="n"/>
-      <c r="K11" s="7" t="n"/>
-      <c r="L11" s="7" t="n"/>
-      <c r="M11" s="6" t="n"/>
-    </row>
-    <row r="12" ht="35.25" customHeight="1" s="1">
-      <c r="A12" s="5" t="n"/>
-      <c r="B12" s="5" t="n"/>
-      <c r="C12" s="5" t="n"/>
-      <c r="D12" s="6" t="n"/>
-      <c r="E12" s="5" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="7" t="n"/>
-      <c r="I12" s="11" t="n"/>
-      <c r="J12" s="12" t="n"/>
-      <c r="K12" s="7" t="n"/>
-      <c r="L12" s="6" t="n"/>
-      <c r="M12" s="6" t="n"/>
-    </row>
-    <row r="13" ht="29.95" customHeight="1" s="1">
-      <c r="A13" s="5" t="n"/>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="6" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="7" t="n"/>
-      <c r="I13" s="11" t="n"/>
-      <c r="J13" s="12" t="n"/>
-      <c r="K13" s="7" t="n"/>
-      <c r="L13" s="6" t="n"/>
-      <c r="M13" s="6" t="n"/>
-    </row>
-    <row r="14" ht="29.95" customHeight="1" s="1">
-      <c r="A14" s="5" t="n"/>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="6" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="7" t="n"/>
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="7" t="n"/>
-      <c r="I14" s="11" t="n"/>
-      <c r="J14" s="12" t="n"/>
-      <c r="K14" s="6" t="n"/>
-      <c r="L14" s="6" t="n"/>
-      <c r="M14" s="6" t="n"/>
-    </row>
-    <row r="15" ht="29.95" customHeight="1" s="1">
-      <c r="A15" s="5" t="n"/>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="6" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="7" t="n"/>
-      <c r="G15" s="7" t="n"/>
-      <c r="H15" s="7" t="n"/>
-      <c r="I15" s="11" t="n"/>
-      <c r="J15" s="12" t="n"/>
-      <c r="K15" s="6" t="n"/>
-      <c r="L15" s="6" t="n"/>
-      <c r="M15" s="6" t="n"/>
-    </row>
-    <row r="16" ht="26.35" customHeight="1" s="1">
-      <c r="A16" s="5" t="n"/>
-      <c r="B16" s="5" t="n"/>
-      <c r="C16" s="5" t="n"/>
-      <c r="D16" s="6" t="n"/>
-      <c r="E16" s="5" t="n"/>
-      <c r="F16" s="7" t="n"/>
-      <c r="G16" s="7" t="n"/>
-      <c r="H16" s="7" t="n"/>
-      <c r="I16" s="11" t="n"/>
-      <c r="J16" s="12" t="n"/>
-      <c r="K16" s="6" t="n"/>
-      <c r="L16" s="6" t="n"/>
-      <c r="M16" s="6" t="n"/>
+    <row customHeight="1" ht="29.95" r="5" s="1">
+      <c r="A5" s="8" t="n"/>
+      <c r="B5" s="8" t="n"/>
+      <c r="C5" s="8" t="n"/>
+      <c r="D5" s="9" t="n"/>
+      <c r="E5" s="8" t="n"/>
+      <c r="F5" s="10" t="n"/>
+      <c r="G5" s="10" t="n"/>
+      <c r="H5" s="10" t="n"/>
+      <c r="I5" s="18" t="n"/>
+      <c r="J5" s="19" t="n"/>
+      <c r="K5" s="10" t="n"/>
+      <c r="L5" s="10" t="n"/>
+      <c r="M5" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="29.95" r="6" s="1">
+      <c r="A6" s="8" t="n"/>
+      <c r="B6" s="8" t="n"/>
+      <c r="C6" s="8" t="n"/>
+      <c r="D6" s="9" t="n"/>
+      <c r="E6" s="8" t="n"/>
+      <c r="F6" s="10" t="n"/>
+      <c r="G6" s="10" t="n"/>
+      <c r="H6" s="10" t="n"/>
+      <c r="I6" s="18" t="n"/>
+      <c r="J6" s="19" t="n"/>
+      <c r="K6" s="10" t="n"/>
+      <c r="L6" s="10" t="n"/>
+      <c r="M6" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="43.6" r="7" s="1">
+      <c r="A7" s="8" t="n"/>
+      <c r="B7" s="8" t="n"/>
+      <c r="C7" s="8" t="n"/>
+      <c r="D7" s="9" t="n"/>
+      <c r="E7" s="8" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="10" t="n"/>
+      <c r="H7" s="10" t="n"/>
+      <c r="I7" s="18" t="n"/>
+      <c r="J7" s="19" t="n"/>
+      <c r="K7" s="10" t="n"/>
+      <c r="L7" s="10" t="n"/>
+      <c r="M7" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="55.55" r="8" s="1">
+      <c r="A8" s="8" t="n"/>
+      <c r="B8" s="8" t="n"/>
+      <c r="C8" s="8" t="n"/>
+      <c r="D8" s="9" t="n"/>
+      <c r="E8" s="8" t="n"/>
+      <c r="F8" s="10" t="n"/>
+      <c r="G8" s="10" t="n"/>
+      <c r="H8" s="10" t="n"/>
+      <c r="I8" s="18" t="n"/>
+      <c r="J8" s="19" t="n"/>
+      <c r="K8" s="10" t="n"/>
+      <c r="L8" s="10" t="n"/>
+      <c r="M8" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="57.05" r="9" s="1">
+      <c r="A9" s="8" t="n"/>
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="8" t="n"/>
+      <c r="F9" s="10" t="n"/>
+      <c r="G9" s="10" t="n"/>
+      <c r="H9" s="10" t="n"/>
+      <c r="I9" s="18" t="n"/>
+      <c r="J9" s="19" t="n"/>
+      <c r="K9" s="10" t="n"/>
+      <c r="L9" s="10" t="n"/>
+      <c r="M9" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="52.5" r="10" s="1">
+      <c r="A10" s="8" t="n"/>
+      <c r="B10" s="8" t="n"/>
+      <c r="C10" s="8" t="n"/>
+      <c r="D10" s="9" t="n"/>
+      <c r="E10" s="8" t="n"/>
+      <c r="F10" s="10" t="n"/>
+      <c r="G10" s="10" t="n"/>
+      <c r="H10" s="10" t="n"/>
+      <c r="I10" s="18" t="n"/>
+      <c r="J10" s="19" t="n"/>
+      <c r="K10" s="10" t="n"/>
+      <c r="L10" s="10" t="n"/>
+      <c r="M10" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="51.75" r="11" s="1">
+      <c r="A11" s="8" t="n"/>
+      <c r="B11" s="8" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="D11" s="9" t="n"/>
+      <c r="E11" s="8" t="n"/>
+      <c r="F11" s="10" t="n"/>
+      <c r="G11" s="10" t="n"/>
+      <c r="H11" s="10" t="n"/>
+      <c r="I11" s="18" t="n"/>
+      <c r="J11" s="19" t="n"/>
+      <c r="K11" s="10" t="n"/>
+      <c r="L11" s="10" t="n"/>
+      <c r="M11" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="35.25" r="12" s="1">
+      <c r="A12" s="8" t="n"/>
+      <c r="B12" s="8" t="n"/>
+      <c r="C12" s="8" t="n"/>
+      <c r="D12" s="9" t="n"/>
+      <c r="E12" s="8" t="n"/>
+      <c r="F12" s="10" t="n"/>
+      <c r="G12" s="10" t="n"/>
+      <c r="H12" s="10" t="n"/>
+      <c r="I12" s="18" t="n"/>
+      <c r="J12" s="19" t="n"/>
+      <c r="K12" s="10" t="n"/>
+      <c r="L12" s="9" t="n"/>
+      <c r="M12" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="29.95" r="13" s="1">
+      <c r="A13" s="8" t="n"/>
+      <c r="B13" s="8" t="n"/>
+      <c r="C13" s="8" t="n"/>
+      <c r="D13" s="9" t="n"/>
+      <c r="E13" s="8" t="n"/>
+      <c r="F13" s="10" t="n"/>
+      <c r="G13" s="10" t="n"/>
+      <c r="H13" s="10" t="n"/>
+      <c r="I13" s="18" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="10" t="n"/>
+      <c r="L13" s="9" t="n"/>
+      <c r="M13" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="29.95" r="14" s="1">
+      <c r="A14" s="8" t="n"/>
+      <c r="B14" s="8" t="n"/>
+      <c r="C14" s="8" t="n"/>
+      <c r="D14" s="9" t="n"/>
+      <c r="E14" s="8" t="n"/>
+      <c r="F14" s="10" t="n"/>
+      <c r="G14" s="10" t="n"/>
+      <c r="H14" s="10" t="n"/>
+      <c r="I14" s="18" t="n"/>
+      <c r="J14" s="19" t="n"/>
+      <c r="K14" s="9" t="n"/>
+      <c r="L14" s="9" t="n"/>
+      <c r="M14" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="29.95" r="15" s="1">
+      <c r="A15" s="8" t="n"/>
+      <c r="B15" s="8" t="n"/>
+      <c r="C15" s="8" t="n"/>
+      <c r="D15" s="9" t="n"/>
+      <c r="E15" s="8" t="n"/>
+      <c r="F15" s="10" t="n"/>
+      <c r="G15" s="10" t="n"/>
+      <c r="H15" s="10" t="n"/>
+      <c r="I15" s="18" t="n"/>
+      <c r="J15" s="19" t="n"/>
+      <c r="K15" s="9" t="n"/>
+      <c r="L15" s="9" t="n"/>
+      <c r="M15" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.35" r="16" s="1">
+      <c r="A16" s="8" t="n"/>
+      <c r="B16" s="8" t="n"/>
+      <c r="C16" s="8" t="n"/>
+      <c r="D16" s="9" t="n"/>
+      <c r="E16" s="8" t="n"/>
+      <c r="F16" s="10" t="n"/>
+      <c r="G16" s="10" t="n"/>
+      <c r="H16" s="10" t="n"/>
+      <c r="I16" s="18" t="n"/>
+      <c r="J16" s="19" t="n"/>
+      <c r="K16" s="9" t="n"/>
+      <c r="L16" s="9" t="n"/>
+      <c r="M16" s="9" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="n"/>
-      <c r="B17" s="8" t="n"/>
-      <c r="C17" s="8" t="n"/>
+      <c r="A17" s="11" t="n"/>
+      <c r="B17" s="11" t="n"/>
+      <c r="C17" s="11" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="n"/>
-      <c r="B18" s="8" t="n"/>
-      <c r="C18" s="8" t="n"/>
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="11" t="n"/>
+      <c r="C18" s="11" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="n"/>
-      <c r="B19" s="8" t="n"/>
-      <c r="C19" s="8" t="n"/>
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="11" t="n"/>
+      <c r="C19" s="11" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="n"/>
-      <c r="B20" s="8" t="n"/>
-      <c r="C20" s="8" t="n"/>
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="11" t="n"/>
+      <c r="C20" s="11" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="n"/>
-      <c r="B21" s="8" t="n"/>
-      <c r="C21" s="8" t="n"/>
+      <c r="A21" s="11" t="n"/>
+      <c r="B21" s="11" t="n"/>
+      <c r="C21" s="11" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="n"/>
-      <c r="B22" s="8" t="n"/>
-      <c r="C22" s="8" t="n"/>
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="11" t="n"/>
+      <c r="C22" s="11" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="n"/>
-      <c r="B23" s="8" t="n"/>
-      <c r="C23" s="8" t="n"/>
+      <c r="A23" s="11" t="n"/>
+      <c r="B23" s="11" t="n"/>
+      <c r="C23" s="11" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="n"/>
-      <c r="B24" s="8" t="n"/>
-      <c r="C24" s="8" t="n"/>
+      <c r="A24" s="11" t="n"/>
+      <c r="B24" s="11" t="n"/>
+      <c r="C24" s="11" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="n"/>
-      <c r="B25" s="8" t="n"/>
-      <c r="C25" s="8" t="n"/>
+      <c r="A25" s="11" t="n"/>
+      <c r="B25" s="11" t="n"/>
+      <c r="C25" s="11" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="n"/>
-      <c r="B26" s="8" t="n"/>
-      <c r="C26" s="8" t="n"/>
+      <c r="A26" s="11" t="n"/>
+      <c r="B26" s="11" t="n"/>
+      <c r="C26" s="11" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="n"/>
-      <c r="B27" s="8" t="n"/>
-      <c r="C27" s="8" t="n"/>
+      <c r="A27" s="11" t="n"/>
+      <c r="B27" s="11" t="n"/>
+      <c r="C27" s="11" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="n"/>
-      <c r="B28" s="8" t="n"/>
-      <c r="C28" s="8" t="n"/>
+      <c r="A28" s="11" t="n"/>
+      <c r="B28" s="11" t="n"/>
+      <c r="C28" s="11" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="n"/>
-      <c r="B29" s="8" t="n"/>
-      <c r="C29" s="8" t="n"/>
+      <c r="A29" s="11" t="n"/>
+      <c r="B29" s="11" t="n"/>
+      <c r="C29" s="11" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="n"/>
-      <c r="B30" s="8" t="n"/>
-      <c r="C30" s="8" t="n"/>
+      <c r="A30" s="11" t="n"/>
+      <c r="B30" s="11" t="n"/>
+      <c r="C30" s="11" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="n"/>
-      <c r="B31" s="8" t="n"/>
-      <c r="C31" s="8" t="n"/>
+      <c r="A31" s="11" t="n"/>
+      <c r="B31" s="11" t="n"/>
+      <c r="C31" s="11" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="n"/>
-      <c r="B32" s="8" t="n"/>
-      <c r="C32" s="8" t="n"/>
+      <c r="A32" s="11" t="n"/>
+      <c r="B32" s="11" t="n"/>
+      <c r="C32" s="11" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="8" t="n"/>
-      <c r="B33" s="8" t="n"/>
-      <c r="C33" s="8" t="n"/>
+      <c r="A33" s="11" t="n"/>
+      <c r="B33" s="11" t="n"/>
+      <c r="C33" s="11" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M16"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -1114,9 +1714,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.55"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1132,8 +1732,8 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.55"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/report/excelReport/DemoAPITestCase.xlsx
+++ b/report/excelReport/DemoAPITestCase.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -231,6 +231,11 @@
       <name val="宋体"/>
       <b val="1"/>
       <color rgb="00808000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <b val="1"/>
+      <color rgb="0000FF00"/>
     </font>
   </fonts>
   <fills count="34">
@@ -704,7 +709,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,6 +772,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1386,14 +1400,14 @@
           <t>success</t>
         </is>
       </c>
-      <c r="L3" s="16" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="M3" s="17" t="inlineStr">
-        <is>
-          <t>tongjingwei</t>
+      <c r="L3" s="20" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M3" s="21" t="inlineStr">
+        <is>
+          <t>{"status":"fail","result":"illegalErr"}{"result":"illegalErr","status":"fail"}</t>
         </is>
       </c>
       <c r="N3" s="0" t="inlineStr">
@@ -1414,14 +1428,14 @@
       <c r="I4" s="18" t="n"/>
       <c r="J4" s="19" t="n"/>
       <c r="K4" s="10" t="n"/>
-      <c r="L4" s="14" t="inlineStr">
+      <c r="L4" s="20" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
-      <c r="M4" s="17" t="inlineStr">
-        <is>
-          <t>{"result":"","status":"success"}{"result":"noPerm","status":"fail"}</t>
+      <c r="M4" s="21" t="inlineStr">
+        <is>
+          <t>{"status":"fail","result":"illegalErr"}{"result":"illegalErr","status":"fail"}</t>
         </is>
       </c>
       <c r="N4" s="0" t="inlineStr">
@@ -1442,8 +1456,21 @@
       <c r="I5" s="18" t="n"/>
       <c r="J5" s="19" t="n"/>
       <c r="K5" s="10" t="n"/>
-      <c r="L5" s="10" t="n"/>
-      <c r="M5" s="9" t="n"/>
+      <c r="L5" s="20" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M5" s="21" t="inlineStr">
+        <is>
+          <t>{"status":"fail","result":"illegalErr"}{"result":"illegalErr","status":"fail"}</t>
+        </is>
+      </c>
+      <c r="N5" s="0" t="inlineStr">
+        <is>
+          <t>tongjingwei</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="29.95" r="6" s="1">
       <c r="A6" s="8" t="n"/>
@@ -1457,8 +1484,21 @@
       <c r="I6" s="18" t="n"/>
       <c r="J6" s="19" t="n"/>
       <c r="K6" s="10" t="n"/>
-      <c r="L6" s="10" t="n"/>
-      <c r="M6" s="9" t="n"/>
+      <c r="L6" s="20" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M6" s="21" t="inlineStr">
+        <is>
+          <t>{"status":"fail","result":"illegalErr"}{"result":"illegalErr","status":"fail"}</t>
+        </is>
+      </c>
+      <c r="N6" s="0" t="inlineStr">
+        <is>
+          <t>tongjingwei</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="43.6" r="7" s="1">
       <c r="A7" s="8" t="n"/>
@@ -1472,8 +1512,21 @@
       <c r="I7" s="18" t="n"/>
       <c r="J7" s="19" t="n"/>
       <c r="K7" s="10" t="n"/>
-      <c r="L7" s="10" t="n"/>
-      <c r="M7" s="9" t="n"/>
+      <c r="L7" s="20" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M7" s="21" t="inlineStr">
+        <is>
+          <t>{"status":"fail","result":"illegalErr"}{"result":"illegalErr","status":"fail"}</t>
+        </is>
+      </c>
+      <c r="N7" s="0" t="inlineStr">
+        <is>
+          <t>tongjingwei</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="55.55" r="8" s="1">
       <c r="A8" s="8" t="n"/>
@@ -1487,8 +1540,21 @@
       <c r="I8" s="18" t="n"/>
       <c r="J8" s="19" t="n"/>
       <c r="K8" s="10" t="n"/>
-      <c r="L8" s="10" t="n"/>
-      <c r="M8" s="9" t="n"/>
+      <c r="L8" s="20" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M8" s="21" t="inlineStr">
+        <is>
+          <t>{"status":"fail","result":"illegalErr"}{"result":"illegalErr","status":"fail"}</t>
+        </is>
+      </c>
+      <c r="N8" s="0" t="inlineStr">
+        <is>
+          <t>tongjingwei</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="57.05" r="9" s="1">
       <c r="A9" s="8" t="n"/>
@@ -1502,8 +1568,21 @@
       <c r="I9" s="18" t="n"/>
       <c r="J9" s="19" t="n"/>
       <c r="K9" s="10" t="n"/>
-      <c r="L9" s="10" t="n"/>
-      <c r="M9" s="9" t="n"/>
+      <c r="L9" s="20" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M9" s="21" t="inlineStr">
+        <is>
+          <t>{"status":"fail","result":"illegalErr"}{"result":"illegalErr","status":"fail"}</t>
+        </is>
+      </c>
+      <c r="N9" s="0" t="inlineStr">
+        <is>
+          <t>tongjingwei</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="52.5" r="10" s="1">
       <c r="A10" s="8" t="n"/>
@@ -1517,8 +1596,21 @@
       <c r="I10" s="18" t="n"/>
       <c r="J10" s="19" t="n"/>
       <c r="K10" s="10" t="n"/>
-      <c r="L10" s="10" t="n"/>
-      <c r="M10" s="9" t="n"/>
+      <c r="L10" s="20" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M10" s="21" t="inlineStr">
+        <is>
+          <t>{"status":"fail","result":"illegalErr"}{"result":"illegalErr","status":"fail"}</t>
+        </is>
+      </c>
+      <c r="N10" s="0" t="inlineStr">
+        <is>
+          <t>tongjingwei</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="51.75" r="11" s="1">
       <c r="A11" s="8" t="n"/>
@@ -1532,8 +1624,21 @@
       <c r="I11" s="18" t="n"/>
       <c r="J11" s="19" t="n"/>
       <c r="K11" s="10" t="n"/>
-      <c r="L11" s="10" t="n"/>
-      <c r="M11" s="9" t="n"/>
+      <c r="L11" s="20" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M11" s="21" t="inlineStr">
+        <is>
+          <t>{"status":"fail","result":"illegalErr"}{"result":"illegalErr","status":"fail"}</t>
+        </is>
+      </c>
+      <c r="N11" s="0" t="inlineStr">
+        <is>
+          <t>tongjingwei</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="35.25" r="12" s="1">
       <c r="A12" s="8" t="n"/>
@@ -1547,8 +1652,21 @@
       <c r="I12" s="18" t="n"/>
       <c r="J12" s="19" t="n"/>
       <c r="K12" s="10" t="n"/>
-      <c r="L12" s="9" t="n"/>
-      <c r="M12" s="9" t="n"/>
+      <c r="L12" s="20" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M12" s="21" t="inlineStr">
+        <is>
+          <t>{"status":"fail","result":"illegalErr"}{"result":"illegalErr","status":"fail"}</t>
+        </is>
+      </c>
+      <c r="N12" s="0" t="inlineStr">
+        <is>
+          <t>tongjingwei</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="29.95" r="13" s="1">
       <c r="A13" s="8" t="n"/>
@@ -1562,8 +1680,21 @@
       <c r="I13" s="18" t="n"/>
       <c r="J13" s="19" t="n"/>
       <c r="K13" s="10" t="n"/>
-      <c r="L13" s="9" t="n"/>
-      <c r="M13" s="9" t="n"/>
+      <c r="L13" s="20" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M13" s="21" t="inlineStr">
+        <is>
+          <t>{"status":"fail","result":"illegalErr"}{"result":"illegalErr","status":"fail"}</t>
+        </is>
+      </c>
+      <c r="N13" s="0" t="inlineStr">
+        <is>
+          <t>tongjingwei</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="29.95" r="14" s="1">
       <c r="A14" s="8" t="n"/>
@@ -1577,8 +1708,21 @@
       <c r="I14" s="18" t="n"/>
       <c r="J14" s="19" t="n"/>
       <c r="K14" s="9" t="n"/>
-      <c r="L14" s="9" t="n"/>
-      <c r="M14" s="9" t="n"/>
+      <c r="L14" s="20" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M14" s="21" t="inlineStr">
+        <is>
+          <t>{"status":"fail","result":"illegalErr"}{"result":"illegalErr","status":"fail"}</t>
+        </is>
+      </c>
+      <c r="N14" s="0" t="inlineStr">
+        <is>
+          <t>tongjingwei</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="29.95" r="15" s="1">
       <c r="A15" s="8" t="n"/>
@@ -1592,8 +1736,21 @@
       <c r="I15" s="18" t="n"/>
       <c r="J15" s="19" t="n"/>
       <c r="K15" s="9" t="n"/>
-      <c r="L15" s="9" t="n"/>
-      <c r="M15" s="9" t="n"/>
+      <c r="L15" s="20" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M15" s="21" t="inlineStr">
+        <is>
+          <t>{"status":"fail","result":"illegalErr"}{"result":"illegalErr","status":"fail"}</t>
+        </is>
+      </c>
+      <c r="N15" s="0" t="inlineStr">
+        <is>
+          <t>tongjingwei</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="26.35" r="16" s="1">
       <c r="A16" s="8" t="n"/>
@@ -1607,18 +1764,61 @@
       <c r="I16" s="18" t="n"/>
       <c r="J16" s="19" t="n"/>
       <c r="K16" s="9" t="n"/>
-      <c r="L16" s="9" t="n"/>
-      <c r="M16" s="9" t="n"/>
+      <c r="L16" s="20" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M16" s="21" t="inlineStr">
+        <is>
+          <t>{"status":"fail","result":"illegalErr"}{"result":"illegalErr","status":"fail"}</t>
+        </is>
+      </c>
+      <c r="N16" s="0" t="inlineStr">
+        <is>
+          <t>tongjingwei</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="n"/>
       <c r="B17" s="11" t="n"/>
       <c r="C17" s="11" t="n"/>
+      <c r="L17" s="23" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M17" s="24" t="inlineStr">
+        <is>
+          <t>{"status":"fail","result":"illegalErr"}{"result":"illegalErr","status":"fail"}</t>
+        </is>
+      </c>
+      <c r="N17" s="0" t="inlineStr">
+        <is>
+          <t>tongjingwei</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="n"/>
       <c r="B18" s="11" t="n"/>
       <c r="C18" s="11" t="n"/>
+      <c r="L18" s="23" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M18" s="24" t="inlineStr">
+        <is>
+          <t>{"status":"fail","result":"illegalErr"}{"result":"illegalErr","status":"fail"}</t>
+        </is>
+      </c>
+      <c r="N18" s="0" t="inlineStr">
+        <is>
+          <t>tongjingwei</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="n"/>

--- a/report/excelReport/DemoAPITestCase.xlsx
+++ b/report/excelReport/DemoAPITestCase.xlsx
@@ -1343,7 +1343,7 @@
       </c>
       <c r="M2" s="21" t="inlineStr">
         <is>
-          <t>{"status":"fail","result":"illegalErr"}{"status":"success"}</t>
+          <t>{"result":"","status":"success"}{"status":"success"}</t>
         </is>
       </c>
       <c r="N2" s="0" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="M3" s="21" t="inlineStr">
         <is>
-          <t>{"status":"fail","result":"illegalErr"}{"result":"illegalErr","status":"fail"}</t>
+          <t>{"result":"illegalErr","status":"fail"}{"result":"illegalErr","status":"fail"}</t>
         </is>
       </c>
       <c r="N3" s="0" t="inlineStr">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="M4" s="21" t="inlineStr">
         <is>
-          <t>{"status":"fail","result":"illegalErr"}{"result":"illegalErr","status":"fail"}</t>
+          <t>{"result":"illegalErr","status":"fail"}{"result":"illegalErr","status":"fail"}</t>
         </is>
       </c>
       <c r="N4" s="0" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="M5" s="21" t="inlineStr">
         <is>
-          <t>{"status":"fail","result":"illegalErr"}{"result":"illegalErr","status":"fail"}</t>
+          <t>{"result":"illegalErr","status":"fail"}{"result":"illegalErr","status":"fail"}</t>
         </is>
       </c>
       <c r="N5" s="0" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="M6" s="21" t="inlineStr">
         <is>
-          <t>{"status":"fail","result":"illegalErr"}{"result":"illegalErr","status":"fail"}</t>
+          <t>{"result":"illegalErr","status":"fail"}{"result":"illegalErr","status":"fail"}</t>
         </is>
       </c>
       <c r="N6" s="0" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="M7" s="21" t="inlineStr">
         <is>
-          <t>{"status":"fail","result":"illegalErr"}{"result":"illegalErr","status":"fail"}</t>
+          <t>{"result":"illegalErr","status":"fail"}{"result":"illegalErr","status":"fail"}</t>
         </is>
       </c>
       <c r="N7" s="0" t="inlineStr">
